--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adraghav/Documents/Personal/Assorted/Investments/Programs/MFPerfQuery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FCE3B3-3B56-3A47-9EA4-9B0551918B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659481F-5354-8E46-B235-35836DDAD4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutual Funds" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>TER % vs Avg</t>
   </si>
   <si>
-    <t>Risk/Return vs Cat (Morning Star)</t>
-  </si>
-  <si>
     <t>3 YR Return</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>aditya-birla-sun-life-banking-psu-debt-fund-direct-plan-growth</t>
+  </si>
+  <si>
+    <t>Risk Rating</t>
   </si>
 </sst>
 </file>
@@ -270,6 +270,45 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
       <border>
@@ -396,6 +435,23 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
       <border outline="0">
         <left style="thin">
@@ -410,60 +466,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -562,22 +564,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
-    <sortCondition ref="B1:B6"/>
-  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRISIL Star Rank" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TER % vs Avg" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Risk/Return vs Cat (Morning Star)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3 YR Return" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="3 YR Rank / Cat Funds" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="5 YR Return" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="5 YR Rank / Cat Funds" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Since Inception Return" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Since Inception Rank / Cat Funds" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Updated On" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRISIL Star Rank" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Risk Rating" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TER % vs Avg" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3 YR Return" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="3 YR Rank / Cat Funds" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="5 YR Return" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="5 YR Rank / Cat Funds" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Since Inception Return" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Since Inception Rank / Cat Funds" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Updated On" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,74 +879,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="17"/>
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
@@ -958,12 +957,12 @@
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="17"/>
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
@@ -974,12 +973,12 @@
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="17"/>
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
@@ -990,12 +989,12 @@
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="17"/>
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
@@ -1006,12 +1005,12 @@
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
       <c r="H6" s="3"/>
